--- a/database.xlsx
+++ b/database.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erro no download</t>
+          <t>Guia baixada</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,11 @@
           <t>48.355.610/0001-34</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Erro no download</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
